--- a/public/geak_newproject.xlsx
+++ b/public/geak_newproject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taamepar/dev/experiments/geak4s/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{38809394-1CB1-BF47-B05D-14067BF708ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE137EDB-AA5B-B541-A7E7-CB3331090DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20160" tabRatio="906" xr2:uid="{46C09611-1FC2-AF47-91C8-0BDD7B254A03}"/>
@@ -6687,11 +6687,26 @@
     <xf numFmtId="0" fontId="8" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="44" fillId="22" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="22" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6717,26 +6732,14 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="22" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="44" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6745,9 +6748,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="44" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6768,14 +6768,20 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="23" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="21" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6796,12 +6802,6 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="22" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6810,6 +6810,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6830,21 +6845,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="21" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="21" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="21" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="21" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7585,7 +7585,7 @@
             <xdr:cNvPr id="1025" name="Comment 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AD49F29-C85C-8E55-C31C-A10F1FE1DF11}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9379EB26-7F92-2A97-3271-BA4119B6B7A5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7683,7 +7683,7 @@
             <xdr:cNvPr id="1026" name="Comment 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C6228CE-70D1-6339-C99F-6D6ECC93F3D1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75BD8526-EF81-C0F4-3921-41AAEE57C797}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7786,7 +7786,7 @@
             <xdr:cNvPr id="10241" name="Comment 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77A69BC8-0195-43C7-67B3-6B3396DD619A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C806C19D-7E89-4498-013A-1E2BD63A46AE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7884,7 +7884,7 @@
             <xdr:cNvPr id="10242" name="Comment 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3212F8B7-7509-F8E0-AF5C-71FEFDC7F348}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2843BCCE-50D9-4BA4-0371-4F03527C0503}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7982,7 +7982,7 @@
             <xdr:cNvPr id="10243" name="Comment 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B794C9C-214D-4333-5FDD-38D0F48A2376}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5433A721-C141-5BB6-AE8C-21EA9553B594}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8092,7 +8092,7 @@
             <xdr:cNvPr id="10244" name="Comment 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87B6A86B-25EF-CB37-6E4D-81C4747C02F0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46B85F73-2FB9-5A82-4238-3ED007F95EE8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8195,7 +8195,7 @@
             <xdr:cNvPr id="11265" name="Comment 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C13E64FC-6B1E-7D96-2013-87B17B712AB7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E09DAAA-FF75-1A31-A800-30CAE8928E58}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8293,7 +8293,7 @@
             <xdr:cNvPr id="11266" name="Comment 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F4B12A-E48B-5C57-140C-44C25A58A06A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2112C383-E0BA-3417-4E22-B7A544E7B8B3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8403,7 +8403,7 @@
             <xdr:cNvPr id="11267" name="Comment 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D04FE607-4B00-A2D4-6CF5-35F8DB168B64}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0783D3C2-B478-3792-EBB8-CC748AFC4AD0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8506,7 +8506,7 @@
             <xdr:cNvPr id="12289" name="Comment 1027">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B23DB21-8B22-C9E6-0603-D5BE48343561}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{344D8C34-B228-F05B-B855-6BE783A8979F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8609,7 +8609,7 @@
             <xdr:cNvPr id="12290" name="Comment 1029">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2AE7B12-791E-5A13-46FA-3CE662A0247D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D903A8-5A6F-0563-8E38-41E0CC6A21F3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8712,7 +8712,7 @@
             <xdr:cNvPr id="13313" name="Comment 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A90A73AE-D7BF-0555-22DD-21F7FA12126B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2C6BB23-DC71-DDFB-E826-1F086C0A25A1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8810,7 +8810,7 @@
             <xdr:cNvPr id="13314" name="Comment 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E943871-8FB3-29E7-6350-1E8B5D5E73D4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A0BAFA6-38FA-3C51-D873-9DE88D685011}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8908,7 +8908,7 @@
             <xdr:cNvPr id="13315" name="Comment 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42F7A22F-B227-89FF-7F89-2C82C0FEA0BA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6CB46F9-559C-4DE5-6F82-5E86467909B9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9023,7 +9023,7 @@
             <xdr:cNvPr id="14337" name="Comment 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F90EC5A-548B-78DE-F69D-48BE91F21FB8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34AE240D-2CB7-CB0D-90F7-7F94B12D4BB3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9121,7 +9121,7 @@
             <xdr:cNvPr id="14338" name="Comment 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA82B16F-2E11-7F9F-7C58-EF648C198A20}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9807889A-530B-04F9-5F60-0864E86471CF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9219,7 +9219,7 @@
             <xdr:cNvPr id="14339" name="Comment 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98211690-443D-2D43-5455-140FAF1E4E3F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D29F52D-4A16-F625-9D62-4DEE1DD85156}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9322,7 +9322,7 @@
             <xdr:cNvPr id="15361" name="Comment 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD6D7B29-0303-2EE0-0FB4-ECF0F68D86D7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F01FCEC8-31FA-3A15-1C24-CF993FAD0BFC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9420,7 +9420,7 @@
             <xdr:cNvPr id="15362" name="Comment 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A9FB318-A2C2-22C0-62DF-8F9CF1B9A1BB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D78FB3E-9928-522D-443B-1A45FBE55F44}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9523,7 +9523,7 @@
             <xdr:cNvPr id="16385" name="Comment 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D02DBEB-37FC-78D0-C0B6-AB21A1CB1C7E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8469FE3-BDFA-F625-83EF-A005FB771A3B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9621,7 +9621,7 @@
             <xdr:cNvPr id="16386" name="Comment 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96F13BF-8B69-B7A8-98DE-A8B006AD1B8D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC5F400E-D35D-0046-1A5A-CD14366EAD35}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9709,7 +9709,7 @@
             <xdr:cNvPr id="16387" name="Comment 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A2CAEE-1EC2-321B-AD52-0DBEED244DB9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF8FD4D-E2AD-5683-E46E-111EE12D5503}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9812,7 +9812,7 @@
             <xdr:cNvPr id="2049" name="Comment 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F1C5957-6402-6545-56C5-1D6033FCE1C9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{219670C6-2A70-007B-567C-0A0417AD89F6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9910,7 +9910,7 @@
             <xdr:cNvPr id="2050" name="Comment 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1EC7DD4-A8BF-E342-F81C-45EA6EFA3333}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D964BE67-074D-E3EE-D054-ABFEEE770F24}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10013,7 +10013,7 @@
             <xdr:cNvPr id="3073" name="Comment 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B92B43D-8639-6D1D-DABD-8087D045F860}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31CCB61F-843A-0CED-7F22-56A3890123D3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10111,7 +10111,7 @@
             <xdr:cNvPr id="3074" name="Comment 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{193E1A6A-6C3D-FE96-7155-62122986595E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC41FA04-B7BB-CA3F-FB93-3FE5E17C61CB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10221,7 +10221,7 @@
             <xdr:cNvPr id="3075" name="Comment 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0F4B35E-6E41-E77E-BD49-3921CE89A567}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C526B6A8-D43A-61D0-7337-9C6D78444261}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10324,7 +10324,7 @@
             <xdr:cNvPr id="4097" name="Comment 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F4D823-FF20-3323-5603-466C32185F72}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{709DC36E-D7DB-4CED-D7B3-E61F75D7DE16}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10422,7 +10422,7 @@
             <xdr:cNvPr id="4098" name="Comment 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4159AC7-1C9E-AF63-6D89-A6EC7EEA3D5E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2201562A-2F63-3E84-7D3C-FCA7B601C04F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10525,7 +10525,7 @@
             <xdr:cNvPr id="5121" name="Comment 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87184245-7C13-232C-BF9B-3B048B73C1E5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{262792AD-2AE6-925C-11EE-3AFEECC03848}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10623,7 +10623,7 @@
             <xdr:cNvPr id="5122" name="Comment 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{136A43F8-70E3-27D3-A736-80282FC24A6C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E80CC523-2391-3A35-A89A-D239FC81038F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10726,7 +10726,7 @@
             <xdr:cNvPr id="6145" name="Comment 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401AB3EA-606F-C3FA-53DA-CBA51A4AD7EA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05A78F62-76C1-4B2C-36A5-4DB395CCF4D5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10829,7 +10829,7 @@
             <xdr:cNvPr id="7169" name="Comment 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{513F2D55-65C3-420E-0CA5-15ED109433BE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D871B348-C222-39F6-02A3-371BCD63BD57}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10927,7 +10927,7 @@
             <xdr:cNvPr id="7170" name="Comment 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CE9F8D9-5B9A-469C-4D92-EA6250411208}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB17DC9C-2DDF-E661-6C51-FF10AE0683DF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11030,7 +11030,7 @@
             <xdr:cNvPr id="8193" name="Comment 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF7166A-2901-A108-094E-07C11FAA85B5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D33FFB3B-FA59-FDD5-BA54-367CB9C5F095}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11128,7 +11128,7 @@
             <xdr:cNvPr id="8194" name="Comment 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF33B66A-0F47-D345-CE2A-ED636DC5AFE0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD1EAA6-3F15-91F5-EBF5-A9BA58D4A7CD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11231,7 +11231,7 @@
             <xdr:cNvPr id="9217" name="Comment 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81595ADF-605E-A87B-6748-8597B77F1AEF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA9CEF6-2430-5B74-E10F-78509618598D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11334,7 +11334,7 @@
             <xdr:cNvPr id="9218" name="Comment 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{628F8295-138D-5DCC-4AD7-0C2D297ED4FF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB9F5819-460E-EAA4-C706-8EC6F1E9C73C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11432,7 +11432,7 @@
             <xdr:cNvPr id="9219" name="Comment 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F00405-53E3-603B-865E-E4FD84B25BF3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F31C3B16-65DF-B2A3-0CFA-19B94E4A3AEE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12276,30 +12276,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="163" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="169"/>
-      <c r="T1" s="169"/>
-      <c r="U1" s="169"/>
-      <c r="V1" s="169"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="159"/>
+      <c r="U1" s="159"/>
+      <c r="V1" s="159"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18"/>
@@ -12323,11 +12323,11 @@
     <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18"/>
       <c r="B3" s="34"/>
-      <c r="C3" s="163" t="s">
+      <c r="C3" s="165" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
       <c r="H3" s="35"/>
@@ -12342,10 +12342,10 @@
       <c r="Q3" s="18"/>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="144" t="s">
         <v>342</v>
       </c>
-      <c r="B4" s="167"/>
+      <c r="B4" s="169"/>
       <c r="C4" s="160"/>
       <c r="D4" s="160"/>
       <c r="E4" s="160"/>
@@ -12363,10 +12363,10 @@
       <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="167" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="166"/>
+      <c r="B5" s="168"/>
       <c r="C5" s="160"/>
       <c r="D5" s="160"/>
       <c r="E5" s="160"/>
@@ -12384,10 +12384,10 @@
       <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:22" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="158" t="s">
+      <c r="A6" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="159"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="160"/>
       <c r="D6" s="160"/>
       <c r="E6" s="160"/>
@@ -12405,10 +12405,10 @@
       <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:22" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="158" t="s">
+      <c r="A7" s="161" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="159"/>
+      <c r="B7" s="162"/>
       <c r="C7" s="160"/>
       <c r="D7" s="160"/>
       <c r="E7" s="160"/>
@@ -12731,10 +12731,10 @@
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18"/>
       <c r="B3" s="34"/>
-      <c r="C3" s="163" t="s">
+      <c r="C3" s="165" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="164"/>
+      <c r="D3" s="166"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
       <c r="G3" s="35"/>
@@ -12747,10 +12747,10 @@
       <c r="N3" s="18"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="144" t="s">
         <v>342</v>
       </c>
-      <c r="B4" s="167"/>
+      <c r="B4" s="169"/>
       <c r="C4" s="160"/>
       <c r="D4" s="160"/>
       <c r="E4" s="22"/>
@@ -12765,10 +12765,10 @@
       <c r="N4" s="18"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="167" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="166"/>
+      <c r="B5" s="168"/>
       <c r="C5" s="160"/>
       <c r="D5" s="160"/>
       <c r="E5" s="22"/>
@@ -12783,10 +12783,10 @@
       <c r="N5" s="18"/>
     </row>
     <row r="6" spans="1:19" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="158" t="s">
+      <c r="A6" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="159"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="160"/>
       <c r="D6" s="160"/>
       <c r="E6" s="22"/>
@@ -12801,10 +12801,10 @@
       <c r="N6" s="18"/>
     </row>
     <row r="7" spans="1:19" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="158" t="s">
+      <c r="A7" s="161" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="159"/>
+      <c r="B7" s="162"/>
       <c r="C7" s="160"/>
       <c r="D7" s="160"/>
       <c r="E7" s="22"/>
@@ -13142,7 +13142,7 @@
     <col min="17" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="173" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="178" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="153" t="s">
         <v>59</v>
       </c>
@@ -13166,54 +13166,54 @@
       <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="144" t="s">
         <v>342</v>
       </c>
-      <c r="B3" s="167"/>
+      <c r="B3" s="169"/>
       <c r="C3" s="160"/>
       <c r="D3" s="160"/>
       <c r="E3" s="160"/>
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="135" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="183"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="176"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="181"/>
       <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="184"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="179"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="184"/>
       <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="184"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="179"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="184"/>
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H8" s="180" t="s">
+      <c r="H8" s="173" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="181"/>
-      <c r="J8" s="182"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="175"/>
     </row>
     <row r="9" spans="1:16" s="27" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="96" t="s">
@@ -13395,16 +13395,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="A10:L109">
     <cfRule type="expression" dxfId="16" priority="1">
@@ -13484,7 +13484,7 @@
     <col min="16" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="173" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="178" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="153" t="s">
         <v>133</v>
       </c>
@@ -13511,8 +13511,8 @@
       <c r="H3" s="185" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="181"/>
-      <c r="J3" s="182"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="175"/>
     </row>
     <row r="4" spans="1:15" s="27" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="96" t="s">
@@ -13748,7 +13748,7 @@
     <col min="17" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="173" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="178" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="153" t="s">
         <v>58</v>
       </c>
@@ -13776,8 +13776,8 @@
       <c r="I3" s="185" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="181"/>
-      <c r="K3" s="182"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="175"/>
     </row>
     <row r="4" spans="1:16" s="27" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="96" t="s">
@@ -14020,7 +14020,7 @@
     <col min="16" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="173" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="178" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="153" t="s">
         <v>134</v>
       </c>
@@ -14043,40 +14043,40 @@
       <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="144" t="s">
         <v>342</v>
       </c>
-      <c r="B3" s="167"/>
+      <c r="B3" s="169"/>
       <c r="C3" s="160"/>
       <c r="D3" s="160"/>
       <c r="E3" s="160"/>
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="135" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="183"/>
+      <c r="B4" s="176"/>
       <c r="C4" s="189"/>
       <c r="D4" s="190"/>
       <c r="E4" s="191"/>
       <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="184"/>
+      <c r="B5" s="177"/>
       <c r="C5" s="186"/>
       <c r="D5" s="187"/>
       <c r="E5" s="188"/>
       <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="184"/>
+      <c r="B6" s="177"/>
       <c r="C6" s="186"/>
       <c r="D6" s="187"/>
       <c r="E6" s="188"/>
@@ -14089,8 +14089,8 @@
       <c r="I8" s="185" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="181"/>
-      <c r="K8" s="182"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="175"/>
     </row>
     <row r="9" spans="1:15" s="27" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="96" t="s">
@@ -14352,7 +14352,7 @@
     <col min="23" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="173" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="178" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="153" t="s">
         <v>774</v>
       </c>
@@ -14381,50 +14381,50 @@
     </row>
     <row r="2" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:23" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="144" t="s">
         <v>342</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="135" t="s">
         <v>193</v>
       </c>
       <c r="B4" s="192"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="19"/>
       <c r="H4" s="24"/>
       <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="151"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="19"/>
       <c r="H5" s="24"/>
       <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="151"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
       <c r="G6" s="19"/>
       <c r="H6" s="24"/>
       <c r="I6" s="19"/>
@@ -15345,7 +15345,7 @@
     <col min="23" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="173" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="178" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="153" t="s">
         <v>195</v>
       </c>
@@ -15374,50 +15374,50 @@
     </row>
     <row r="2" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:23" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="144" t="s">
         <v>342</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="135" t="s">
         <v>193</v>
       </c>
       <c r="B4" s="192"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="19"/>
       <c r="H4" s="24"/>
       <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="151"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="19"/>
       <c r="H5" s="24"/>
       <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="151"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
       <c r="G6" s="19"/>
       <c r="H6" s="24"/>
       <c r="I6" s="19"/>
@@ -15947,17 +15947,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="A8:XFD8"/>
     <mergeCell ref="A16:XFD16"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="A8">
     <cfRule type="containsBlanks" dxfId="8" priority="1">
@@ -16071,8 +16071,8 @@
       <c r="G3" s="185" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="181"/>
-      <c r="I3" s="182"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="175"/>
     </row>
     <row r="4" spans="1:15" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="96" t="s">
@@ -17204,10 +17204,10 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="135" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="147"/>
+      <c r="B3" s="136"/>
       <c r="C3" s="203"/>
       <c r="D3" s="204"/>
       <c r="E3" s="45"/>
@@ -17217,10 +17217,10 @@
       <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:22" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="146"/>
+      <c r="B4" s="132"/>
       <c r="C4" s="203"/>
       <c r="D4" s="204"/>
       <c r="E4" s="45"/>
@@ -17230,10 +17230,10 @@
       <c r="I4" s="45"/>
     </row>
     <row r="5" spans="1:22" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="146"/>
+      <c r="B5" s="132"/>
       <c r="C5" s="203"/>
       <c r="D5" s="204"/>
       <c r="E5" s="45"/>
@@ -17252,8 +17252,8 @@
       <c r="E7" s="185" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="181"/>
-      <c r="G7" s="182"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="175"/>
       <c r="H7" s="3"/>
       <c r="I7" s="19"/>
       <c r="K7" s="199" t="s">
@@ -21883,13 +21883,13 @@
       <c r="H1" s="76"/>
       <c r="I1" s="76"/>
       <c r="J1" s="76"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2" s="3"/>
@@ -21900,92 +21900,92 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="135" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="136"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="142" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
       <c r="G4" s="19"/>
-      <c r="H4" s="143" t="s">
+      <c r="H4" s="146" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
     </row>
     <row r="5" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="144" t="s">
         <v>342</v>
       </c>
-      <c r="B5" s="140"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="32"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="132" t="s">
+      <c r="A6" s="135" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
       <c r="G6" s="32"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
     </row>
     <row r="7" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="145" t="s">
+      <c r="A7" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="146"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
       <c r="G7" s="32"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="142"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
     </row>
     <row r="8" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="145" t="s">
+      <c r="A8" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="146"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
       <c r="G8" s="32"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="142"/>
-      <c r="K8" s="142"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="134"/>
     </row>
     <row r="9" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="3"/>
@@ -22148,6 +22148,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="H8:K8"/>
@@ -22157,14 +22165,6 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="H7:K7"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="A11:D110 F11:I110">
     <cfRule type="expression" dxfId="40" priority="1">
@@ -22282,92 +22282,92 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="136"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
       <c r="G4" s="19"/>
-      <c r="H4" s="143" t="s">
+      <c r="H4" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
     </row>
     <row r="5" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="144" t="s">
         <v>342</v>
       </c>
-      <c r="B5" s="140"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="32"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="150"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="151"/>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="132" t="s">
+      <c r="A6" s="135" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
       <c r="G6" s="32"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="150"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="145" t="s">
+      <c r="A7" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="151"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
       <c r="G7" s="32"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="149"/>
-      <c r="K7" s="150"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="151"/>
     </row>
     <row r="8" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="145" t="s">
+      <c r="A8" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="146"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
       <c r="G8" s="32"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="149"/>
-      <c r="K8" s="150"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="151"/>
     </row>
     <row r="9" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="3"/>
@@ -22543,22 +22543,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="A11:D110 F11:I110">
     <cfRule type="expression" dxfId="37" priority="1">
@@ -22679,51 +22679,51 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="144" t="s">
         <v>342</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="135" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="147"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:20" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="146"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:20" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="146"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="135" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="152"/>
@@ -23026,20 +23026,20 @@
         <v>112</v>
       </c>
       <c r="B1" s="76"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E2" s="3"/>
@@ -23049,92 +23049,92 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="136"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="142" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
       <c r="G4" s="19"/>
-      <c r="H4" s="143" t="s">
+      <c r="H4" s="146" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
     </row>
     <row r="5" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="144" t="s">
         <v>342</v>
       </c>
-      <c r="B5" s="140"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="32"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="132" t="s">
+      <c r="A6" s="135" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="147"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
       <c r="G6" s="32"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
     </row>
     <row r="7" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="145" t="s">
+      <c r="A7" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="146"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
       <c r="G7" s="32"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="142"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
     </row>
     <row r="8" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="145" t="s">
+      <c r="A8" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="146"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
       <c r="G8" s="32"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="142"/>
-      <c r="K8" s="142"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="134"/>
     </row>
     <row r="9" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E9" s="3"/>
@@ -23258,6 +23258,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C5:F5"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="A8:B8"/>
@@ -23274,7 +23275,6 @@
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="A11:C110 E11:H110">
     <cfRule type="expression" dxfId="31" priority="1">
@@ -23379,36 +23379,36 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="135" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="147"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="146"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
